--- a/completed/LoanDefault_Completed.xlsx
+++ b/completed/LoanDefault_Completed.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="115" documentId="8_{9C5BFD28-558D-45FE-8FE7-D4F96D0AAC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FB4122A-79E0-4474-97FC-DF83BBEB1ABD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{22A72064-8E61-480C-A8F5-A56E797927B1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{22A72064-8E61-480C-A8F5-A56E797927B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E553BC-EC47-4C5D-A122-7138B454D697}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B15" activeCellId="4" sqref="B7:C7 B2:C2 B3:C3 B11:C11 B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1686,7 +1686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CA1F05-C979-470B-90E1-0CEE092E3BE2}">
   <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
